--- a/Documentation/Wiring Diagrams.xlsx
+++ b/Documentation/Wiring Diagrams.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
   <si>
     <t xml:space="preserve">MINI DIN 5p Base to Grip Connectors</t>
   </si>
@@ -115,6 +115,9 @@
     <t xml:space="preserve">Blue</t>
   </si>
   <si>
+    <t xml:space="preserve">rj</t>
+  </si>
+  <si>
     <t xml:space="preserve">DirL</t>
   </si>
   <si>
@@ -125,6 +128,27 @@
   </si>
   <si>
     <t xml:space="preserve">DirD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST-PHR-8 to Thumbstick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encode A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encode B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wire length = 46mm +/-4mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST-PHR-3 to Faceplate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Button</t>
   </si>
 </sst>
 </file>
@@ -134,11 +158,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -159,12 +184,21 @@
       <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -285,68 +319,80 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -433,9 +479,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>748800</xdr:colOff>
+      <xdr:colOff>748440</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -449,7 +495,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10080" y="67320"/>
-          <a:ext cx="1551600" cy="1386000"/>
+          <a:ext cx="1551240" cy="1385640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -470,9 +516,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -486,7 +532,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5805000" y="66960"/>
-          <a:ext cx="1551600" cy="1386000"/>
+          <a:ext cx="1551240" cy="1385640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -507,9 +553,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -523,7 +569,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="75600" y="2285640"/>
-          <a:ext cx="1551600" cy="1386000"/>
+          <a:ext cx="1551240" cy="1385640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -544,9 +590,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>465480</xdr:colOff>
+      <xdr:colOff>465120</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -560,7 +606,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5785560" y="1826280"/>
-          <a:ext cx="2893680" cy="2189160"/>
+          <a:ext cx="2893320" cy="2188800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -581,9 +627,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>722880</xdr:colOff>
+      <xdr:colOff>722520</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -597,7 +643,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="178200" y="4535640"/>
-          <a:ext cx="1357560" cy="1392840"/>
+          <a:ext cx="1357200" cy="1392480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -618,9 +664,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>214920</xdr:colOff>
+      <xdr:colOff>214560</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -634,7 +680,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5784840" y="4637520"/>
-          <a:ext cx="3456720" cy="1313640"/>
+          <a:ext cx="3456360" cy="1313280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177840</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>722160</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>121320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177840" y="11733480"/>
+          <a:ext cx="1357200" cy="1392480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -654,591 +737,857 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:I53"/>
+  <dimension ref="A2:I78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H47" activeCellId="0" sqref="H47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L52" activeCellId="0" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.28"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="F20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="F22" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="C33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="F33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="D34" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="6" t="n">
+      <c r="F34" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="6" t="n">
+      <c r="D35" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G35" s="10" t="s">
+      <c r="F35" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="C44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="E44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="6" t="s">
+      <c r="C45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="6" t="n">
+      <c r="F45" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="6" t="n">
+      <c r="D46" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="6" t="n">
+      <c r="F46" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="D47" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="6" t="n">
+      <c r="F47" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="6" t="n">
+      <c r="D48" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G48" s="15" t="s">
+      <c r="F48" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G48" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="H48" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="6" t="n">
+      <c r="D49" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="6" t="n">
+      <c r="D50" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G50" s="10" t="s">
+      <c r="F65" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51" s="6" t="n">
+      <c r="D78" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G51" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
+      <c r="E78" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F78" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A2:I3"/>
     <mergeCell ref="C15:G16"/>
     <mergeCell ref="C30:G31"/>
     <mergeCell ref="C42:G43"/>
+    <mergeCell ref="C57:G58"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="C73:G74"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
